--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E606EE26-5102-4BFC-B488-AAB7BD74EF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2C8EF9-BA3A-41F7-B534-F59CD23405D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,RaD,WaP,FaD,WaD,RaP,FaP,SaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaN,SaN,WaN,RaP,WaP,FaN</t>
+    <t>FaD,FaP,SaP,SaD,RaP,RaD,WaP,WaD</t>
+  </si>
+  <si>
+    <t>FaN,RaP,WaP,FaP,SaP,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -813,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaP,SaP,RaN,SaN,WaN,RaP,WaP,FaN</v>
+        <v>FaN,RaP,WaP,FaP,SaP,SaN,WaN,RaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>SaD,RaD,WaP,FaD,WaD,RaP,FaP,SaP</v>
+        <v>FaD,FaP,SaP,SaD,RaP,RaD,WaP,WaD</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082203CF-8486-43E7-B9FA-0ED5E3C76617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8855B996-4C9D-46D4-BEC7-E1DD664DEF83}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1084,10 +1084,10 @@
         <v>0.28114388397789059</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL11">
-        <v>0.2683376024047926</v>
+        <v>0.271089565824848</v>
       </c>
       <c r="AM11" t="s">
         <v>62</v>
@@ -1173,7 +1173,7 @@
         <v>26</v>
       </c>
       <c r="AL12">
-        <v>0.34021888693664126</v>
+        <v>0.34021888693664121</v>
       </c>
       <c r="AM12" t="s">
         <v>62</v>
@@ -1336,10 +1336,10 @@
         <v>0.33254809651703798</v>
       </c>
       <c r="AK14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>0.27108956582484806</v>
+        <v>0.2683376024047926</v>
       </c>
       <c r="AM14" t="s">
         <v>62</v>
